--- a/part 2/description of example data.xlsx
+++ b/part 2/description of example data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code files\GitHub\university\DB_project\part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D002FD05-2608-4A2B-A594-7C9149588355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B1CB4-62DD-4806-A72E-02733431FFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{48C1442F-497A-4EAA-9C1B-129D1C526D6A}"/>
+    <workbookView xWindow="38280" yWindow="-105" windowWidth="38640" windowHeight="21120" xr2:uid="{48C1442F-497A-4EAA-9C1B-129D1C526D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="121">
   <si>
     <t>PRODUCTS</t>
   </si>
@@ -260,18 +260,6 @@
     <t>Pruning &amp; Harvesting Scissors</t>
   </si>
   <si>
-    <t>Custom: Scln, Fnl, Snflr</t>
-  </si>
-  <si>
-    <t>Custom: Snflwr, Pprlb</t>
-  </si>
-  <si>
-    <t>Custom: Scln, Fnl, SnflrGldn</t>
-  </si>
-  <si>
-    <t>Custom: SnflwrGldn, PprLB</t>
-  </si>
-  <si>
     <t>Light Salsa Garden</t>
   </si>
   <si>
@@ -405,6 +393,12 @@
   </si>
   <si>
     <t>United states, Texas, Alburkurky, Midland st., 8, 23615656</t>
+  </si>
+  <si>
+    <t>Custom: SnflwrGldn2, PprLB2</t>
+  </si>
+  <si>
+    <t>Custom: Scln3, Fnl2, SnflrGldn3</t>
   </si>
 </sst>
 </file>
@@ -503,26 +497,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -860,11 +852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6939B8DC-BB54-41AE-8917-435F5BF9FFCA}">
   <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="AM7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="AQ14" sqref="AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,132 +864,132 @@
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="35.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.5" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.25" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="48.625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.25" style="5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20.25" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.25" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20.25" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="48.625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="19.875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" style="7"/>
-    <col min="43" max="43" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" style="5"/>
+    <col min="43" max="43" width="27.5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" style="7"/>
+    <col min="45" max="45" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8" t="s">
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8" t="s">
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8" t="s">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8" t="s">
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="9" t="s">
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="5"/>
+      <c r="AT1" s="3"/>
     </row>
     <row r="2" spans="1:46" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1006,127 +998,127 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" t="s">
         <v>1</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1143,19 +1135,19 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
@@ -1167,7 +1159,7 @@
       <c r="L3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="N3" t="s">
@@ -1176,7 +1168,7 @@
       <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="Q3" t="s">
@@ -1188,13 +1180,13 @@
       <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="U3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="W3" t="s">
@@ -1203,7 +1195,7 @@
       <c r="X3" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="Z3" t="s">
@@ -1212,7 +1204,7 @@
       <c r="AA3" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AC3" t="s">
@@ -1224,7 +1216,7 @@
       <c r="AE3" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AG3" t="s">
@@ -1233,7 +1225,7 @@
       <c r="AH3" t="s">
         <v>54</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AJ3" t="s">
@@ -1254,7 +1246,7 @@
       <c r="AO3" t="s">
         <v>58</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AQ3" t="s">
@@ -1263,7 +1255,7 @@
       <c r="AR3" t="s">
         <v>53</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1271,7 +1263,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
@@ -1280,43 +1272,43 @@
       <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Z4" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="12"/>
       <c r="AJ4" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AL4" s="1"/>
-      <c r="AP4" s="7" t="s">
+      <c r="AL4" s="12"/>
+      <c r="AP4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AQ4" t="s">
@@ -1361,7 +1353,7 @@
         <f>"&lt;Price"</f>
         <v>&lt;Price</v>
       </c>
-      <c r="G6" s="7" t="str">
+      <c r="G6" s="5" t="str">
         <f>"Of Format '%@%.%'"</f>
         <v>Of Format '%@%.%'</v>
       </c>
@@ -1402,60 +1394,60 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>90</v>
+      <c r="E7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="13" t="str">
+        <v>92</v>
+      </c>
+      <c r="I7" s="9" t="str">
         <f>"1999-03-16 13:57:22.0034"</f>
         <v>1999-03-16 13:57:22.0034</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s">
         <v>82</v>
       </c>
-      <c r="S7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="7" t="s">
-        <v>78</v>
+      <c r="V7" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="W7">
         <v>2</v>
@@ -1463,50 +1455,50 @@
       <c r="X7">
         <v>2</v>
       </c>
-      <c r="Y7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Y7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
         <v>72</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AB7" s="7" t="s">
-        <v>114</v>
+      <c r="AB7" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="AC7" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
         <v>United states, California, Disney land, , , 00000001</v>
       </c>
       <c r="AD7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AE7" t="str">
         <f>"(123)459-8889"</f>
         <v>(123)459-8889</v>
       </c>
-      <c r="AF7" s="7" t="s">
-        <v>95</v>
+      <c r="AF7" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="AG7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AH7" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
         <v>United states, California, Disney land, , , 00000001</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="5">
         <v>33222</v>
       </c>
-      <c r="AJ7" s="12" t="s">
-        <v>95</v>
+      <c r="AJ7" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="AK7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AM7" t="str">
         <f>"1999-03-16"</f>
@@ -1520,16 +1512,16 @@
         <f>"Klarna"</f>
         <v>Klarna</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="5">
         <v>33222</v>
       </c>
       <c r="AQ7" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AR7">
         <v>3</v>
       </c>
-      <c r="AS7" s="7" t="s">
+      <c r="AS7" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1543,58 +1535,58 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>90</v>
+      <c r="E8" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="7" t="str">
+        <v>93</v>
+      </c>
+      <c r="I8" s="5" t="str">
         <f>"2006-04-29 10:30:12.5678"</f>
         <v>2006-04-29 10:30:12.5678</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="12"/>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
-      </c>
-      <c r="T8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>79</v>
+      <c r="V8" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="W8">
         <v>5</v>
@@ -1602,8 +1594,8 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="7" t="s">
-        <v>78</v>
+      <c r="Y8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="Z8" t="s">
         <v>71</v>
@@ -1611,39 +1603,39 @@
       <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AB8" s="7" t="s">
-        <v>115</v>
+      <c r="AB8" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="AC8" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
         <v>United states, California, Disney land, , , 00000001</v>
       </c>
       <c r="AD8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AE8" t="str">
         <f>"0126549854"</f>
         <v>0126549854</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>95</v>
+      <c r="AF8" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="AG8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AH8" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
         <v>United states, California, Disney land, , , 00000001</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="5">
         <v>33223</v>
       </c>
-      <c r="AJ8" s="14"/>
+      <c r="AJ8" s="10"/>
       <c r="AK8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL8" t="s">
         <v>118</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>122</v>
       </c>
       <c r="AM8" t="str">
         <f>"2009-03-16"</f>
@@ -1653,16 +1645,16 @@
         <f>"Klarna"</f>
         <v>Klarna</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="5">
         <v>33222</v>
       </c>
       <c r="AQ8" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AR8">
         <v>3</v>
       </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AS8" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1676,60 +1668,60 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>90</v>
+      <c r="E9" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>93</v>
+      <c r="G9" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="7" t="str">
+        <v>94</v>
+      </c>
+      <c r="I9" s="5" t="str">
         <f>"2013-02-01 14:03:54.6955"</f>
         <v>2013-02-01 14:03:54.6955</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
         <v>84</v>
       </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="7" t="s">
-        <v>75</v>
+      <c r="V9" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="W9">
         <v>2</v>
@@ -1737,47 +1729,47 @@
       <c r="X9">
         <v>2</v>
       </c>
-      <c r="Y9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Y9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" t="s">
         <v>69</v>
       </c>
       <c r="AA9">
         <v>2</v>
       </c>
-      <c r="AB9" s="7" t="s">
-        <v>116</v>
+      <c r="AB9" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="AC9" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
         <v>United states, California, Disney land, , , 00000001</v>
       </c>
       <c r="AD9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AE9" t="str">
         <f>"123.551.6595"</f>
         <v>123.551.6595</v>
       </c>
-      <c r="AF9" s="7" t="s">
-        <v>95</v>
+      <c r="AF9" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="AG9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AH9" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
         <v>United states, California, Disney land, , , 00000001</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AI9" s="5">
         <v>33224</v>
       </c>
-      <c r="AJ9" s="12" t="s">
-        <v>94</v>
+      <c r="AJ9" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AK9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AL9" t="str">
         <f>"United states, Texas, Alburkurky, Saint st., 3, 23611356"</f>
@@ -1791,16 +1783,16 @@
         <f>"ShopPay"</f>
         <v>ShopPay</v>
       </c>
-      <c r="AP9" s="7">
+      <c r="AP9" s="5">
         <v>33223</v>
       </c>
       <c r="AQ9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AR9">
         <v>2</v>
       </c>
-      <c r="AS9" s="7" t="s">
+      <c r="AS9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1814,60 +1806,60 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="7" t="str">
+        <v>96</v>
+      </c>
+      <c r="I10" s="5" t="str">
         <f>"2015-06-02 15:57:51.2333"</f>
         <v>2015-06-02 15:57:51.2333</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>68</v>
       </c>
       <c r="Q10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
-      </c>
-      <c r="T10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="7" t="s">
-        <v>74</v>
+      <c r="V10" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="W10">
         <v>8</v>
@@ -1875,47 +1867,47 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="10" t="s">
+      <c r="Y10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
         <v>70</v>
       </c>
       <c r="AA10">
         <v>2</v>
       </c>
-      <c r="AB10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AB10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC10" t="str">
         <f>"United states, Texas, Alburkurky, Saint st., 3, 23611356"</f>
         <v>United states, Texas, Alburkurky, Saint st., 3, 23611356</v>
       </c>
-      <c r="AD10" s="10" t="s">
-        <v>119</v>
+      <c r="AD10" t="s">
+        <v>115</v>
       </c>
       <c r="AE10" t="str">
         <f>"222-222-2221"</f>
         <v>222-222-2221</v>
       </c>
-      <c r="AF10" s="11" t="s">
-        <v>94</v>
+      <c r="AF10" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="AG10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AH10" t="str">
         <f>"United states, Texas, Alburkurky, Saint st., 3, 23611356"</f>
         <v>United states, Texas, Alburkurky, Saint st., 3, 23611356</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AI10" s="5">
         <v>33225</v>
       </c>
-      <c r="AJ10" s="12" t="s">
-        <v>95</v>
+      <c r="AJ10" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="AK10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
@@ -1933,7 +1925,7 @@
         <f>"ShopPay"</f>
         <v>ShopPay</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="5">
         <v>33224</v>
       </c>
       <c r="AQ10" t="s">
@@ -1942,7 +1934,7 @@
       <c r="AR10">
         <v>1</v>
       </c>
-      <c r="AS10" s="7" t="s">
+      <c r="AS10" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1956,60 +1948,60 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="H11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="5" t="str">
         <f>"2023-12-30 20:26:24.3633"</f>
         <v>2023-12-30 20:26:24.3633</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" t="s">
         <v>81</v>
       </c>
-      <c r="R11" t="s">
-        <v>85</v>
-      </c>
       <c r="S11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" s="7" t="s">
-        <v>79</v>
+      <c r="Y11" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="Z11" t="s">
         <v>71</v>
@@ -2017,36 +2009,35 @@
       <c r="AA11">
         <v>1</v>
       </c>
-      <c r="AB11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC11" s="10" t="str">
+      <c r="AB11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" t="str">
         <f>"United states, Texas, Alburkurky, Midland st., 8, 23615656"</f>
         <v>United states, Texas, Alburkurky, Midland st., 8, 23615656</v>
       </c>
-      <c r="AD11" s="10"/>
       <c r="AE11" t="str">
         <f>"222 222 2222"</f>
         <v>222 222 2222</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>94</v>
+      <c r="AF11" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="AG11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AH11" t="str">
         <f>"United states, Texas, Alburkurky, Saint st., 3, 23611356"</f>
         <v>United states, Texas, Alburkurky, Saint st., 3, 23611356</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AI11" s="5">
         <v>33226</v>
       </c>
-      <c r="AJ11" s="12" t="s">
-        <v>92</v>
+      <c r="AJ11" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="AK11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="str">
         <f>"United states, California, Disney land, , , 00000001"</f>
@@ -2064,22 +2055,22 @@
         <f>"ShopPay"</f>
         <v>ShopPay</v>
       </c>
-      <c r="AP11" s="7">
+      <c r="AP11" s="5">
         <v>33225</v>
       </c>
       <c r="AQ11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AR11">
         <v>20</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AS11" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>119.99</v>
@@ -2087,43 +2078,43 @@
       <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="I12" s="5" t="str">
         <f>"2024-01-03 23:56:38.4659"</f>
         <v>2024-01-03 23:56:38.4659</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>90</v>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N12" t="str">
         <f>"2006-04-29 10:30:12.5678"</f>
         <v>2006-04-29 10:30:12.5678</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="7" t="s">
-        <v>79</v>
+      <c r="Y12" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="Z12" t="s">
         <v>69</v>
@@ -2131,28 +2122,28 @@
       <c r="AA12">
         <v>3</v>
       </c>
-      <c r="AB12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC12" s="10" t="str">
+      <c r="AB12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" t="str">
         <f>"United states, Texas, Alburkurky, Saint st., 3, 23611356"</f>
         <v>United states, Texas, Alburkurky, Saint st., 3, 23611356</v>
       </c>
-      <c r="AD12" s="10" t="s">
-        <v>119</v>
+      <c r="AD12" t="s">
+        <v>115</v>
       </c>
       <c r="AE12" t="str">
         <f>"123.551.6595"</f>
         <v>123.551.6595</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="5">
         <v>33227</v>
       </c>
-      <c r="AJ12" s="12" t="s">
-        <v>94</v>
+      <c r="AJ12" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="AK12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AL12" t="str">
         <f>"United states, Texas, Alburkurky, Saint st., 3, 23611356"</f>
@@ -2170,7 +2161,7 @@
         <f>"Klarna"</f>
         <v>Klarna</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP12" s="5">
         <v>33226</v>
       </c>
       <c r="AQ12" t="s">
@@ -2179,13 +2170,13 @@
       <c r="AR12">
         <v>60</v>
       </c>
-      <c r="AS12" s="7" t="s">
+      <c r="AS12" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>129.99</v>
@@ -2193,29 +2184,29 @@
       <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
-      </c>
-      <c r="T13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="7" t="s">
-        <v>75</v>
+      <c r="Y13" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="Z13" t="s">
         <v>68</v>
@@ -2223,17 +2214,17 @@
       <c r="AA13">
         <v>2</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13" s="5">
         <v>33228</v>
       </c>
-      <c r="AJ13" s="14" t="s">
-        <v>121</v>
+      <c r="AJ13" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="AK13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL13" t="s">
         <v>118</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>122</v>
       </c>
       <c r="AM13" t="str">
         <f>"2024-02-03"</f>
@@ -2247,7 +2238,7 @@
         <f>"ShopPay"</f>
         <v>ShopPay</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="5">
         <v>33227</v>
       </c>
       <c r="AQ13" t="s">
@@ -2259,7 +2250,7 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <v>159.99</v>
@@ -2267,14 +2258,14 @@
       <c r="D14">
         <v>30</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" t="s">
         <v>64</v>
       </c>
-      <c r="Y14" s="7" t="s">
-        <v>75</v>
+      <c r="Y14" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="Z14" t="s">
         <v>72</v>
@@ -2282,7 +2273,7 @@
       <c r="AA14">
         <v>2</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AP14" s="5">
         <v>33228</v>
       </c>
       <c r="AQ14" t="s">
@@ -2294,7 +2285,7 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>159.99</v>
@@ -2302,8 +2293,8 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="Y15" s="7" t="s">
-        <v>74</v>
+      <c r="Y15" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="Z15" t="s">
         <v>68</v>
@@ -2314,7 +2305,7 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>34.99</v>
@@ -2322,10 +2313,10 @@
       <c r="D16">
         <v>3.75</v>
       </c>
-      <c r="Y16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="10" t="s">
+      <c r="Y16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z16" t="s">
         <v>70</v>
       </c>
       <c r="AA16">
@@ -2342,10 +2333,10 @@
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="Y17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="10" t="s">
+      <c r="Y17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z17" t="s">
         <v>69</v>
       </c>
       <c r="AA17">
@@ -2354,6 +2345,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="E1:F1"/>
@@ -2364,11 +2360,6 @@
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <hyperlinks>
